--- a/stock_predictor_ai/data/company_sentiment_ready/WTW_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/WTW_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6048"/>
+  <dimension ref="A1:B6102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48825,6 +48825,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6049">
+      <c r="A6049" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B6049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6050">
+      <c r="A6050" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B6050" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6051">
+      <c r="A6051" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B6051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6052">
+      <c r="A6052" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B6052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6053">
+      <c r="A6053" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B6053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6054">
+      <c r="A6054" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B6054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6055">
+      <c r="A6055" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B6055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6056">
+      <c r="A6056" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B6056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6057">
+      <c r="A6057" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B6057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6058">
+      <c r="A6058" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B6058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6059">
+      <c r="A6059" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B6059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6060">
+      <c r="A6060" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B6060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6061">
+      <c r="A6061" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B6061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6062">
+      <c r="A6062" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B6062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6063">
+      <c r="A6063" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B6063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6064">
+      <c r="A6064" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B6064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6065">
+      <c r="A6065" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B6065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6066">
+      <c r="A6066" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B6066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6067">
+      <c r="A6067" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B6067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6068">
+      <c r="A6068" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B6068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6069">
+      <c r="A6069" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B6069" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6070">
+      <c r="A6070" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B6070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6071">
+      <c r="A6071" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B6071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6072">
+      <c r="A6072" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B6072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6073">
+      <c r="A6073" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B6073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6074">
+      <c r="A6074" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B6074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6075">
+      <c r="A6075" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B6075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6076">
+      <c r="A6076" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B6076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6077">
+      <c r="A6077" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B6077" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6078">
+      <c r="A6078" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B6078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6079">
+      <c r="A6079" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B6079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6080">
+      <c r="A6080" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B6080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6081">
+      <c r="A6081" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B6081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6082">
+      <c r="A6082" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B6082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6083">
+      <c r="A6083" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B6083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6084">
+      <c r="A6084" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B6084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6085">
+      <c r="A6085" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B6085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6086">
+      <c r="A6086" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B6086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6087">
+      <c r="A6087" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B6087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6088">
+      <c r="A6088" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B6088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6089">
+      <c r="A6089" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B6089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6090">
+      <c r="A6090" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B6090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6091">
+      <c r="A6091" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B6091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6092">
+      <c r="A6092" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B6092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6093">
+      <c r="A6093" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B6093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6094">
+      <c r="A6094" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B6094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6095">
+      <c r="A6095" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B6095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6096">
+      <c r="A6096" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B6096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6097">
+      <c r="A6097" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B6097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6098">
+      <c r="A6098" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B6098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6099">
+      <c r="A6099" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B6099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6100">
+      <c r="A6100" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B6100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6101">
+      <c r="A6101" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B6101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6102">
+      <c r="A6102" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B6102" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
